--- a/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/BOQ/Running bill No 2.xlsx
+++ b/Running projects/Bank Al Habib Center Point Karachi/BAHL 12 floor Centrepoint Karachi/BOQ/Running bill No 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Bank Al Habib Center Point Karachi\BAHL 12 floor Centrepoint Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BCF77E-F730-46BA-9D07-EA65CB146BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE878F72-55DB-4792-A8CC-95284237EEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1403,7 +1403,7 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1908,6 +1908,114 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,125 +2025,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2449,7 +2455,7 @@
   <dimension ref="A10:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2571,15 +2577,15 @@
       </c>
       <c r="C23" s="147">
         <f>HVAC!M91</f>
-        <v>6730598</v>
+        <v>6560510</v>
       </c>
       <c r="D23" s="148">
         <f>HVAC!R91</f>
-        <v>12791793.699999999</v>
+        <v>12824131.699999999</v>
       </c>
       <c r="E23" s="147">
         <f>D23+C23</f>
-        <v>19522391.699999999</v>
+        <v>19384641.699999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
@@ -2623,15 +2629,15 @@
       </c>
       <c r="C27" s="111">
         <f>SUM(C23:C26)</f>
-        <v>7650451.5999999996</v>
+        <v>7480363.5999999996</v>
       </c>
       <c r="D27" s="111">
         <f>SUM(D23:D26)</f>
-        <v>15821825.199999999</v>
+        <v>15854163.199999999</v>
       </c>
       <c r="E27" s="111">
         <f>SUM(E23:E26)</f>
-        <v>23472276.800000001</v>
+        <v>23334526.800000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2652,7 +2658,7 @@
       <c r="D31" s="114"/>
       <c r="E31" s="111">
         <f>E27-E29</f>
-        <v>19244360.800000001</v>
+        <v>19106610.800000001</v>
       </c>
     </row>
   </sheetData>
@@ -2673,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A88" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2706,21 +2712,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
+      <c r="A1" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
       <c r="N1" s="143"/>
       <c r="O1" s="143"/>
       <c r="P1" s="143"/>
@@ -2733,21 +2739,21 @@
       <c r="W1" s="143"/>
     </row>
     <row r="2" spans="1:23" s="24" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
       <c r="N2" s="144"/>
       <c r="O2" s="144"/>
       <c r="P2" s="144"/>
@@ -2760,11 +2766,11 @@
       <c r="W2" s="144"/>
     </row>
     <row r="3" spans="1:23" s="24" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
@@ -2787,11 +2793,11 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" s="24" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="28"/>
@@ -2814,104 +2820,104 @@
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" s="92" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="170" t="s">
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="170" t="s">
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="206" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="170" t="s">
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="206" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="172"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="208"/>
     </row>
     <row r="6" spans="1:23" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="191" t="s">
+      <c r="B6" s="199"/>
+      <c r="C6" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="191" t="s">
+      <c r="E6" s="202" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="191" t="s">
+      <c r="F6" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="191" t="s">
+      <c r="G6" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="173" t="s">
+      <c r="I6" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="174"/>
-      <c r="K6" s="173" t="s">
+      <c r="J6" s="205"/>
+      <c r="K6" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="174"/>
-      <c r="M6" s="175" t="s">
+      <c r="L6" s="205"/>
+      <c r="M6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="173" t="s">
+      <c r="N6" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="174"/>
-      <c r="P6" s="173" t="s">
+      <c r="O6" s="205"/>
+      <c r="P6" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="175" t="s">
+      <c r="Q6" s="205"/>
+      <c r="R6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="S6" s="173" t="s">
+      <c r="S6" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="174"/>
-      <c r="U6" s="173" t="s">
+      <c r="T6" s="205"/>
+      <c r="U6" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="V6" s="174"/>
-      <c r="W6" s="175" t="s">
+      <c r="V6" s="205"/>
+      <c r="W6" s="197" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="189"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="175"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="197"/>
       <c r="I7" s="93" t="s">
         <v>111</v>
       </c>
@@ -2924,7 +2930,7 @@
       <c r="L7" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="175"/>
+      <c r="M7" s="197"/>
       <c r="N7" s="93" t="s">
         <v>111</v>
       </c>
@@ -2937,7 +2943,7 @@
       <c r="Q7" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="175"/>
+      <c r="R7" s="197"/>
       <c r="S7" s="93" t="s">
         <v>111</v>
       </c>
@@ -2950,11 +2956,11 @@
       <c r="V7" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="W7" s="175"/>
+      <c r="W7" s="197"/>
     </row>
     <row r="8" spans="1:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="178"/>
-      <c r="B8" s="179"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2980,10 +2986,10 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:23" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="180">
+      <c r="A9" s="172">
         <v>1</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="16" t="s">
         <v>65</v>
       </c>
@@ -3169,10 +3175,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="180">
+      <c r="A12" s="172">
         <v>2</v>
       </c>
-      <c r="B12" s="181"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
@@ -3201,7 +3207,7 @@
       <c r="A13" s="182">
         <v>2.1</v>
       </c>
-      <c r="B13" s="186"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="17" t="s">
         <v>11</v>
       </c>
@@ -3308,10 +3314,10 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="194"/>
+      <c r="B15" s="189"/>
       <c r="C15" s="29" t="s">
         <v>15</v>
       </c>
@@ -3619,7 +3625,7 @@
       <c r="A19" s="182">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B19" s="186"/>
+      <c r="B19" s="190"/>
       <c r="C19" s="17" t="s">
         <v>17</v>
       </c>
@@ -3849,7 +3855,7 @@
       <c r="A22" s="182">
         <v>2.4</v>
       </c>
-      <c r="B22" s="186"/>
+      <c r="B22" s="190"/>
       <c r="C22" s="19" t="s">
         <v>66</v>
       </c>
@@ -3930,7 +3936,7 @@
       <c r="A23" s="182">
         <v>2.5</v>
       </c>
-      <c r="B23" s="186"/>
+      <c r="B23" s="190"/>
       <c r="C23" s="21" t="s">
         <v>67</v>
       </c>
@@ -4011,7 +4017,7 @@
       <c r="A24" s="182">
         <v>2.6</v>
       </c>
-      <c r="B24" s="186"/>
+      <c r="B24" s="190"/>
       <c r="C24" s="16" t="s">
         <v>18</v>
       </c>
@@ -4235,10 +4241,10 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="195">
+      <c r="A27" s="186">
         <v>2.7</v>
       </c>
-      <c r="B27" s="196"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="29" t="s">
         <v>138</v>
       </c>
@@ -4478,10 +4484,10 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="150" x14ac:dyDescent="0.2">
-      <c r="A30" s="180">
+      <c r="A30" s="172">
         <v>3</v>
       </c>
-      <c r="B30" s="181"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="17" t="s">
         <v>141</v>
       </c>
@@ -4867,10 +4873,10 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="195">
+      <c r="A35" s="186">
         <v>3.5</v>
       </c>
-      <c r="B35" s="196"/>
+      <c r="B35" s="187"/>
       <c r="C35" s="29" t="s">
         <v>23</v>
       </c>
@@ -4948,10 +4954,10 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="180">
+      <c r="A36" s="172">
         <v>4</v>
       </c>
-      <c r="B36" s="181"/>
+      <c r="B36" s="176"/>
       <c r="C36" s="17" t="s">
         <v>24</v>
       </c>
@@ -5418,10 +5424,10 @@
       </c>
     </row>
     <row r="42" spans="1:23" ht="105" x14ac:dyDescent="0.2">
-      <c r="A42" s="180">
+      <c r="A42" s="172">
         <v>5</v>
       </c>
-      <c r="B42" s="181"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="17" t="s">
         <v>26</v>
       </c>
@@ -5564,10 +5570,10 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="195">
+      <c r="A44" s="186">
         <v>5.2</v>
       </c>
-      <c r="B44" s="196"/>
+      <c r="B44" s="187"/>
       <c r="C44" s="29" t="s">
         <v>22</v>
       </c>
@@ -5645,10 +5651,10 @@
       </c>
     </row>
     <row r="45" spans="1:23" ht="75" x14ac:dyDescent="0.2">
-      <c r="A45" s="180">
+      <c r="A45" s="172">
         <v>6</v>
       </c>
-      <c r="B45" s="181"/>
+      <c r="B45" s="176"/>
       <c r="C45" s="17" t="s">
         <v>27</v>
       </c>
@@ -5735,7 +5741,7 @@
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32">
-        <f t="shared" ref="J46:J77" si="59">I46*F46</f>
+        <f t="shared" ref="J46:J71" si="59">I46*F46</f>
         <v>0</v>
       </c>
       <c r="K46" s="32">
@@ -5743,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="32">
-        <f t="shared" ref="L46:L77" si="61">K46*G46</f>
+        <f t="shared" ref="L46:L71" si="61">K46*G46</f>
         <v>0</v>
       </c>
       <c r="M46" s="32">
@@ -5791,10 +5797,10 @@
       </c>
     </row>
     <row r="47" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="180">
+      <c r="A47" s="172">
         <v>7</v>
       </c>
-      <c r="B47" s="181"/>
+      <c r="B47" s="176"/>
       <c r="C47" s="17" t="s">
         <v>70</v>
       </c>
@@ -5880,62 +5886,61 @@
         <v>275500</v>
       </c>
       <c r="I48" s="116">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="J48" s="32">
         <f t="shared" si="59"/>
-        <v>279300</v>
+        <v>186200</v>
       </c>
       <c r="K48" s="116">
-        <f t="shared" si="60"/>
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L48" s="32">
         <f t="shared" si="61"/>
-        <v>9975</v>
+        <v>6650</v>
       </c>
       <c r="M48" s="32">
         <f t="shared" si="4"/>
-        <v>289275</v>
+        <v>192850</v>
       </c>
       <c r="N48" s="116">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="O48" s="32">
         <f t="shared" si="38"/>
-        <v>252700</v>
+        <v>212800</v>
       </c>
       <c r="P48" s="116">
         <f t="shared" si="62"/>
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="Q48" s="32">
         <f t="shared" ref="Q48:Q58" si="64">P48*G48</f>
-        <v>9025</v>
+        <v>7600</v>
       </c>
       <c r="R48" s="32">
         <f t="shared" si="7"/>
-        <v>261725</v>
+        <v>220400</v>
       </c>
       <c r="S48" s="116">
         <f t="shared" ref="S48:S58" si="65">N48+I48</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T48" s="32">
         <f t="shared" ref="T48:T58" si="66">S48*F48</f>
-        <v>532000</v>
+        <v>399000</v>
       </c>
       <c r="U48" s="116">
         <f t="shared" ref="U48:U58" si="67">P48+K48</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V48" s="32">
         <f t="shared" ref="V48:V58" si="68">U48*G48</f>
-        <v>19000</v>
+        <v>14250</v>
       </c>
       <c r="W48" s="32">
         <f t="shared" si="13"/>
-        <v>551000</v>
+        <v>413250</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -6603,10 +6608,10 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="197">
+      <c r="A57" s="193">
         <v>7.1</v>
       </c>
-      <c r="B57" s="198"/>
+      <c r="B57" s="194"/>
       <c r="C57" s="29" t="s">
         <v>38</v>
       </c>
@@ -6686,10 +6691,10 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="202">
+      <c r="A58" s="191">
         <v>7.11</v>
       </c>
-      <c r="B58" s="203"/>
+      <c r="B58" s="192"/>
       <c r="C58" s="29" t="s">
         <v>39</v>
       </c>
@@ -6769,10 +6774,10 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="75" x14ac:dyDescent="0.2">
-      <c r="A59" s="180">
+      <c r="A59" s="172">
         <v>8</v>
       </c>
-      <c r="B59" s="181"/>
+      <c r="B59" s="176"/>
       <c r="C59" s="17" t="s">
         <v>40</v>
       </c>
@@ -6803,10 +6808,7 @@
         <f>N59*K59</f>
         <v>0</v>
       </c>
-      <c r="P59" s="32">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
+      <c r="P59" s="214"/>
       <c r="Q59" s="32">
         <f>P59*L59</f>
         <v>0</v>
@@ -6933,43 +6935,41 @@
         <f t="shared" si="69"/>
         <v>334248</v>
       </c>
-      <c r="I61" s="32">
-        <v>1</v>
-      </c>
+      <c r="I61" s="32"/>
       <c r="J61" s="32">
         <f t="shared" si="59"/>
-        <v>53808</v>
+        <v>0</v>
       </c>
       <c r="K61" s="32">
         <f t="shared" si="60"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="32">
         <f t="shared" si="61"/>
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="M61" s="32">
         <f t="shared" si="4"/>
-        <v>55708</v>
+        <v>0</v>
       </c>
       <c r="N61" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O61" s="32">
         <f t="shared" si="38"/>
-        <v>107616</v>
+        <v>161424</v>
       </c>
       <c r="P61" s="32">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q61" s="32">
         <f>P61*G61</f>
-        <v>3800</v>
+        <v>5700</v>
       </c>
       <c r="R61" s="32">
         <f t="shared" si="7"/>
-        <v>111416</v>
+        <v>167124</v>
       </c>
       <c r="S61" s="32">
         <f>N61+I61</f>
@@ -7221,10 +7221,10 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="135" x14ac:dyDescent="0.2">
-      <c r="A65" s="200">
+      <c r="A65" s="174">
         <v>9</v>
       </c>
-      <c r="B65" s="201"/>
+      <c r="B65" s="175"/>
       <c r="C65" s="29" t="s">
         <v>46</v>
       </c>
@@ -7304,10 +7304,10 @@
       </c>
     </row>
     <row r="66" spans="1:23" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="180">
+      <c r="A66" s="172">
         <v>10</v>
       </c>
-      <c r="B66" s="199"/>
+      <c r="B66" s="173"/>
       <c r="C66" s="35" t="s">
         <v>48</v>
       </c>
@@ -7387,10 +7387,10 @@
       </c>
     </row>
     <row r="67" spans="1:23" ht="75" x14ac:dyDescent="0.2">
-      <c r="A67" s="200">
+      <c r="A67" s="174">
         <v>11</v>
       </c>
-      <c r="B67" s="201"/>
+      <c r="B67" s="175"/>
       <c r="C67" s="34" t="s">
         <v>68</v>
       </c>
@@ -7463,10 +7463,10 @@
       </c>
     </row>
     <row r="68" spans="1:23" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="180">
+      <c r="A68" s="172">
         <v>12</v>
       </c>
-      <c r="B68" s="181"/>
+      <c r="B68" s="176"/>
       <c r="C68" s="17" t="s">
         <v>71</v>
       </c>
@@ -7531,7 +7531,7 @@
       <c r="A69" s="182">
         <v>12.1</v>
       </c>
-      <c r="B69" s="186"/>
+      <c r="B69" s="190"/>
       <c r="C69" s="17" t="s">
         <v>49</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="A72" s="182">
         <v>12.2</v>
       </c>
-      <c r="B72" s="186"/>
+      <c r="B72" s="190"/>
       <c r="C72" s="17" t="s">
         <v>52</v>
       </c>
@@ -7865,10 +7865,10 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A74" s="193" t="s">
+      <c r="A74" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="194"/>
+      <c r="B74" s="189"/>
       <c r="C74" s="29" t="s">
         <v>54</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="A76" s="182">
         <v>12.3</v>
       </c>
-      <c r="B76" s="186"/>
+      <c r="B76" s="190"/>
       <c r="C76" s="17" t="s">
         <v>56</v>
       </c>
@@ -8213,10 +8213,10 @@
       </c>
     </row>
     <row r="79" spans="1:23" ht="60" x14ac:dyDescent="0.2">
-      <c r="A79" s="180">
+      <c r="A79" s="172">
         <v>13</v>
       </c>
-      <c r="B79" s="181"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="17" t="s">
         <v>59</v>
       </c>
@@ -8242,10 +8242,10 @@
       <c r="W79" s="32"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A80" s="195">
+      <c r="A80" s="186">
         <v>13.1</v>
       </c>
-      <c r="B80" s="196"/>
+      <c r="B80" s="187"/>
       <c r="C80" s="29" t="s">
         <v>60</v>
       </c>
@@ -8323,10 +8323,10 @@
       </c>
     </row>
     <row r="81" spans="1:23" ht="60" x14ac:dyDescent="0.2">
-      <c r="A81" s="180">
+      <c r="A81" s="172">
         <v>14</v>
       </c>
-      <c r="B81" s="181"/>
+      <c r="B81" s="176"/>
       <c r="C81" s="17" t="s">
         <v>61</v>
       </c>
@@ -8336,10 +8336,10 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="213"/>
+      <c r="L81" s="213"/>
+      <c r="M81" s="213"/>
       <c r="N81" s="38"/>
       <c r="O81" s="38"/>
       <c r="P81" s="38"/>
@@ -8376,42 +8376,43 @@
         <v>260680</v>
       </c>
       <c r="I82" s="116">
-        <v>31.25</v>
+        <v>24.5</v>
       </c>
       <c r="J82" s="32">
         <f t="shared" ref="J82:J90" si="99">I82*F82</f>
-        <v>72734.375</v>
+        <v>57023.75</v>
       </c>
       <c r="K82" s="116">
         <f t="shared" ref="K82:K90" si="100">I82</f>
-        <v>31.25</v>
+        <v>24.5</v>
       </c>
       <c r="L82" s="32">
         <f t="shared" ref="L82:L90" si="101">K82*G82</f>
-        <v>10390.625</v>
+        <v>8146.25</v>
       </c>
       <c r="M82" s="32">
         <f t="shared" si="96"/>
-        <v>83125</v>
+        <v>65170</v>
       </c>
       <c r="N82" s="116">
-        <v>101.75</v>
+        <f>101.75+6.75</f>
+        <v>108.5</v>
       </c>
       <c r="O82" s="32">
         <f t="shared" ref="O82:O90" si="102">N82*F82</f>
-        <v>236823.125</v>
+        <v>252533.75</v>
       </c>
       <c r="P82" s="116">
         <f t="shared" ref="P82:P90" si="103">N82</f>
-        <v>101.75</v>
+        <v>108.5</v>
       </c>
       <c r="Q82" s="32">
         <f>P82*G82</f>
-        <v>33831.875</v>
+        <v>36076.25</v>
       </c>
       <c r="R82" s="32">
         <f t="shared" ref="R82:R90" si="104">Q82+O82</f>
-        <v>270655</v>
+        <v>288610</v>
       </c>
       <c r="S82" s="116">
         <f>N82+I82</f>
@@ -8435,10 +8436,10 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="75" x14ac:dyDescent="0.2">
-      <c r="A83" s="180">
+      <c r="A83" s="172">
         <v>15</v>
       </c>
-      <c r="B83" s="199"/>
+      <c r="B83" s="173"/>
       <c r="C83" s="29" t="s">
         <v>135</v>
       </c>
@@ -8518,10 +8519,10 @@
       </c>
     </row>
     <row r="84" spans="1:23" ht="60" x14ac:dyDescent="0.2">
-      <c r="A84" s="200">
+      <c r="A84" s="174">
         <v>16</v>
       </c>
-      <c r="B84" s="201"/>
+      <c r="B84" s="175"/>
       <c r="C84" s="29" t="s">
         <v>136</v>
       </c>
@@ -8597,10 +8598,10 @@
       </c>
     </row>
     <row r="85" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="180">
+      <c r="A85" s="172">
         <v>17</v>
       </c>
-      <c r="B85" s="181"/>
+      <c r="B85" s="176"/>
       <c r="C85" s="11" t="s">
         <v>62</v>
       </c>
@@ -8678,8 +8679,8 @@
       </c>
     </row>
     <row r="86" spans="1:23" ht="90" x14ac:dyDescent="0.2">
-      <c r="A86" s="206"/>
-      <c r="B86" s="207"/>
+      <c r="A86" s="177"/>
+      <c r="B86" s="178"/>
       <c r="C86" s="149" t="s">
         <v>137</v>
       </c>
@@ -8757,10 +8758,10 @@
       </c>
     </row>
     <row r="87" spans="1:23" ht="90" x14ac:dyDescent="0.2">
-      <c r="A87" s="200">
+      <c r="A87" s="174">
         <v>18</v>
       </c>
-      <c r="B87" s="208"/>
+      <c r="B87" s="179"/>
       <c r="C87" s="140" t="s">
         <v>69</v>
       </c>
@@ -8836,10 +8837,10 @@
       </c>
     </row>
     <row r="88" spans="1:23" ht="105" x14ac:dyDescent="0.2">
-      <c r="A88" s="180">
+      <c r="A88" s="172">
         <v>19</v>
       </c>
-      <c r="B88" s="181"/>
+      <c r="B88" s="176"/>
       <c r="C88" s="11" t="s">
         <v>73</v>
       </c>
@@ -8915,10 +8916,10 @@
       </c>
     </row>
     <row r="89" spans="1:23" ht="75" x14ac:dyDescent="0.2">
-      <c r="A89" s="180">
+      <c r="A89" s="172">
         <v>20</v>
       </c>
-      <c r="B89" s="181"/>
+      <c r="B89" s="176"/>
       <c r="C89" s="16" t="s">
         <v>119</v>
       </c>
@@ -8996,10 +8997,10 @@
       </c>
     </row>
     <row r="90" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="180">
+      <c r="A90" s="172">
         <v>21</v>
       </c>
-      <c r="B90" s="181"/>
+      <c r="B90" s="176"/>
       <c r="C90" s="17" t="s">
         <v>72</v>
       </c>
@@ -9077,8 +9078,8 @@
       </c>
     </row>
     <row r="91" spans="1:23" s="23" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="209"/>
-      <c r="B91" s="210"/>
+      <c r="A91" s="180"/>
+      <c r="B91" s="181"/>
       <c r="C91" s="160" t="s">
         <v>63</v>
       </c>
@@ -9093,60 +9094,60 @@
       <c r="I91" s="162"/>
       <c r="J91" s="163">
         <f>SUM(J8:J90)</f>
-        <v>6000368.625</v>
+        <v>5837750</v>
       </c>
       <c r="K91" s="162"/>
       <c r="L91" s="163">
         <f>SUM(L8:L90)</f>
-        <v>730229.375</v>
+        <v>722760</v>
       </c>
       <c r="M91" s="163">
         <f>SUM(M8:M90)</f>
-        <v>6730598</v>
+        <v>6560510</v>
       </c>
       <c r="N91" s="162"/>
       <c r="O91" s="163">
         <f>SUM(O8:O90)</f>
-        <v>11666571.425000001</v>
+        <v>11696190.050000001</v>
       </c>
       <c r="P91" s="162"/>
       <c r="Q91" s="163">
         <f>SUM(Q8:Q90)</f>
-        <v>1125222.2749999999</v>
+        <v>1127941.6499999999</v>
       </c>
       <c r="R91" s="163">
         <f>SUM(R8:R90)</f>
-        <v>12791793.699999999</v>
+        <v>12824131.699999999</v>
       </c>
       <c r="S91" s="162"/>
       <c r="T91" s="163">
         <f>SUM(T8:T90)</f>
-        <v>17666940.050000001</v>
+        <v>17533940.050000001</v>
       </c>
       <c r="U91" s="162"/>
       <c r="V91" s="163">
         <f>SUM(V8:V90)</f>
-        <v>1855451.65</v>
+        <v>1850701.65</v>
       </c>
       <c r="W91" s="164">
         <f>SUM(W8:W90)</f>
-        <v>19522391.699999999</v>
+        <v>19384641.699999999</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A92" s="204"/>
-      <c r="B92" s="204"/>
-      <c r="C92" s="204"/>
-      <c r="D92" s="204"/>
-      <c r="E92" s="204"/>
-      <c r="F92" s="204"/>
-      <c r="G92" s="204"/>
-      <c r="H92" s="204"/>
-      <c r="I92" s="204"/>
-      <c r="J92" s="204"/>
-      <c r="K92" s="204"/>
-      <c r="L92" s="204"/>
-      <c r="M92" s="204"/>
+      <c r="A92" s="170"/>
+      <c r="B92" s="170"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="170"/>
+      <c r="E92" s="170"/>
+      <c r="F92" s="170"/>
+      <c r="G92" s="170"/>
+      <c r="H92" s="170"/>
+      <c r="I92" s="170"/>
+      <c r="J92" s="170"/>
+      <c r="K92" s="170"/>
+      <c r="L92" s="170"/>
+      <c r="M92" s="170"/>
       <c r="N92" s="84"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
@@ -9160,18 +9161,18 @@
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="134"/>
-      <c r="B93" s="205"/>
-      <c r="C93" s="205"/>
-      <c r="D93" s="205"/>
-      <c r="E93" s="205"/>
-      <c r="F93" s="205"/>
-      <c r="G93" s="205"/>
-      <c r="H93" s="205"/>
-      <c r="I93" s="205"/>
-      <c r="J93" s="205"/>
-      <c r="K93" s="205"/>
-      <c r="L93" s="205"/>
-      <c r="M93" s="205"/>
+      <c r="B93" s="171"/>
+      <c r="C93" s="171"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="171"/>
+      <c r="F93" s="171"/>
+      <c r="G93" s="171"/>
+      <c r="H93" s="171"/>
+      <c r="I93" s="171"/>
+      <c r="J93" s="171"/>
+      <c r="K93" s="171"/>
+      <c r="L93" s="171"/>
+      <c r="M93" s="171"/>
       <c r="N93" s="44"/>
       <c r="O93" s="44"/>
       <c r="P93" s="44"/>
@@ -9185,18 +9186,18 @@
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="134"/>
-      <c r="B94" s="205"/>
-      <c r="C94" s="205"/>
-      <c r="D94" s="205"/>
-      <c r="E94" s="205"/>
-      <c r="F94" s="205"/>
-      <c r="G94" s="205"/>
-      <c r="H94" s="205"/>
-      <c r="I94" s="205"/>
-      <c r="J94" s="205"/>
-      <c r="K94" s="205"/>
-      <c r="L94" s="205"/>
-      <c r="M94" s="205"/>
+      <c r="B94" s="171"/>
+      <c r="C94" s="171"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="171"/>
+      <c r="F94" s="171"/>
+      <c r="G94" s="171"/>
+      <c r="H94" s="171"/>
+      <c r="I94" s="171"/>
+      <c r="J94" s="171"/>
+      <c r="K94" s="171"/>
+      <c r="L94" s="171"/>
+      <c r="M94" s="171"/>
       <c r="N94" s="44"/>
       <c r="O94" s="44"/>
       <c r="P94" s="44"/>
@@ -9210,12 +9211,12 @@
     </row>
     <row r="95" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="134"/>
-      <c r="B95" s="205"/>
-      <c r="C95" s="205"/>
-      <c r="D95" s="205"/>
-      <c r="E95" s="205"/>
-      <c r="F95" s="205"/>
-      <c r="G95" s="205"/>
+      <c r="B95" s="171"/>
+      <c r="C95" s="171"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="171"/>
+      <c r="F95" s="171"/>
+      <c r="G95" s="171"/>
       <c r="H95" s="44"/>
       <c r="I95" s="44"/>
       <c r="J95" s="44"/>
@@ -9245,28 +9246,80 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A92:M92"/>
-    <mergeCell ref="B94:M94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B93:M93"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A69:B69"/>
@@ -9283,80 +9336,28 @@
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A92:M92"/>
+    <mergeCell ref="B94:M94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B93:M93"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9409,21 +9410,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
+      <c r="A1" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
       <c r="N1" s="143"/>
       <c r="O1" s="143"/>
       <c r="P1" s="143"/>
@@ -9436,21 +9437,21 @@
       <c r="W1" s="143"/>
     </row>
     <row r="2" spans="1:23" s="24" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
+      <c r="G2" s="210"/>
+      <c r="H2" s="210"/>
+      <c r="I2" s="210"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="210"/>
+      <c r="L2" s="210"/>
+      <c r="M2" s="210"/>
       <c r="N2" s="144"/>
       <c r="O2" s="144"/>
       <c r="P2" s="144"/>
@@ -9463,11 +9464,11 @@
       <c r="W2" s="144"/>
     </row>
     <row r="3" spans="1:23" s="24" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
@@ -9490,11 +9491,11 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" s="24" customFormat="1" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="177" t="s">
+      <c r="A4" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="28"/>
@@ -9517,104 +9518,104 @@
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" s="92" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="170" t="s">
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="170" t="s">
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="206" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="170" t="s">
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="206" t="s">
         <v>142</v>
       </c>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="172"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="208"/>
     </row>
     <row r="6" spans="1:23" s="94" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="198" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="191" t="s">
+      <c r="B6" s="199"/>
+      <c r="C6" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="202" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="191" t="s">
+      <c r="E6" s="202" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="191" t="s">
+      <c r="F6" s="202" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="191" t="s">
+      <c r="G6" s="202" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="173" t="s">
+      <c r="I6" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="174"/>
-      <c r="K6" s="173" t="s">
+      <c r="J6" s="205"/>
+      <c r="K6" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="174"/>
-      <c r="M6" s="175" t="s">
+      <c r="L6" s="205"/>
+      <c r="M6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="173" t="s">
+      <c r="N6" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="174"/>
-      <c r="P6" s="173" t="s">
+      <c r="O6" s="205"/>
+      <c r="P6" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="175" t="s">
+      <c r="Q6" s="205"/>
+      <c r="R6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="S6" s="173" t="s">
+      <c r="S6" s="204" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="174"/>
-      <c r="U6" s="173" t="s">
+      <c r="T6" s="205"/>
+      <c r="U6" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="V6" s="174"/>
-      <c r="W6" s="175" t="s">
+      <c r="V6" s="205"/>
+      <c r="W6" s="197" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="94" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="189"/>
-      <c r="B7" s="190"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="175"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="197"/>
       <c r="I7" s="93" t="s">
         <v>111</v>
       </c>
@@ -9627,7 +9628,7 @@
       <c r="L7" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="175"/>
+      <c r="M7" s="197"/>
       <c r="N7" s="93" t="s">
         <v>111</v>
       </c>
@@ -9640,7 +9641,7 @@
       <c r="Q7" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="175"/>
+      <c r="R7" s="197"/>
       <c r="S7" s="93" t="s">
         <v>111</v>
       </c>
@@ -9653,7 +9654,7 @@
       <c r="V7" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="W7" s="175"/>
+      <c r="W7" s="197"/>
     </row>
     <row r="8" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="124"/>
@@ -11551,20 +11552,20 @@
       <c r="A43" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="205" t="s">
+      <c r="B43" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="205"/>
-      <c r="D43" s="205"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="205"/>
-      <c r="G43" s="205"/>
-      <c r="H43" s="205"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="205"/>
-      <c r="K43" s="205"/>
-      <c r="L43" s="205"/>
-      <c r="M43" s="205"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
+      <c r="L43" s="171"/>
+      <c r="M43" s="171"/>
       <c r="N43" s="44"/>
       <c r="O43" s="44"/>
       <c r="P43" s="44"/>
@@ -11580,14 +11581,14 @@
       <c r="A44" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="205"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
@@ -11612,6 +11613,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:M43"/>
@@ -11626,20 +11641,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:W7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
